--- a/mbs-perturbation/greedy/multinomialNB/nearmiss/greedy-multinomialNB-nearmiss-results.xlsx
+++ b/mbs-perturbation/greedy/multinomialNB/nearmiss/greedy-multinomialNB-nearmiss-results.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.775</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.7750000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.7750000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2857142857142858</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8</v>
+        <v>0.405</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7142857142857142</v>
+        <v>0.395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>0.4050000000000001</v>
       </c>
     </row>
   </sheetData>
